--- a/academycity/data/training/datasets/excel/battalion_2/equipment_for_soldier.xlsx
+++ b/academycity/data/training/datasets/excel/battalion_2/equipment_for_soldier.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="151">
   <si>
     <t xml:space="preserve">item_number</t>
   </si>
@@ -91,6 +91,9 @@
     <t xml:space="preserve">משקפיים טקטיות</t>
   </si>
   <si>
+    <t xml:space="preserve">magazine_coupler</t>
+  </si>
+  <si>
     <t xml:space="preserve">9050-0267</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t xml:space="preserve">נרתיק לאקדח גלוק</t>
   </si>
   <si>
+    <t xml:space="preserve">tactical_watch </t>
+  </si>
+  <si>
     <t xml:space="preserve">9050-0265</t>
   </si>
   <si>
@@ -196,6 +202,9 @@
     <t xml:space="preserve">נעליים טקטיות</t>
   </si>
   <si>
+    <t xml:space="preserve">duffel_bag</t>
+  </si>
+  <si>
     <t xml:space="preserve">9007-0848</t>
   </si>
   <si>
@@ -355,6 +364,9 @@
     <t xml:space="preserve">פאוץ מחסנית אקדח 19 כפול</t>
   </si>
   <si>
+    <t xml:space="preserve">ballistic_plates</t>
+  </si>
+  <si>
     <t xml:space="preserve">9050-0306</t>
   </si>
   <si>
@@ -373,6 +385,9 @@
     <t xml:space="preserve">פנס כיס אישי</t>
   </si>
   <si>
+    <t xml:space="preserve">nanook_sf_rg </t>
+  </si>
+  <si>
     <t xml:space="preserve">9029-0094</t>
   </si>
   <si>
@@ -419,6 +434,9 @@
   </si>
   <si>
     <t xml:space="preserve">מנשא 70 ליטר עם כיסוי גשם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multi_tool</t>
   </si>
   <si>
     <t xml:space="preserve">9050-0307</t>
@@ -643,21 +661,21 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="61.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -777,15 +795,17 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>2</v>
@@ -799,16 +819,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3" t="n">
         <v>1</v>
@@ -821,15 +841,17 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>1</v>
@@ -843,16 +865,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>1</v>
@@ -867,13 +889,13 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>1</v>
@@ -888,13 +910,13 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>1</v>
@@ -909,13 +931,13 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>1</v>
@@ -929,16 +951,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>1</v>
@@ -952,16 +974,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>1</v>
@@ -975,16 +997,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>1</v>
@@ -997,15 +1019,17 @@
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="D16" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>1</v>
@@ -1019,16 +1043,16 @@
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>1</v>
@@ -1042,16 +1066,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>1</v>
@@ -1065,16 +1089,16 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>3</v>
@@ -1088,16 +1112,16 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>1</v>
@@ -1111,16 +1135,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>1</v>
@@ -1135,13 +1159,13 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>1</v>
@@ -1156,13 +1180,13 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>1</v>
@@ -1176,16 +1200,16 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>1</v>
@@ -1199,16 +1223,16 @@
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>3</v>
@@ -1222,16 +1246,16 @@
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>1</v>
@@ -1246,13 +1270,13 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>1</v>
@@ -1267,13 +1291,13 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>1</v>
@@ -1288,13 +1312,13 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>1</v>
@@ -1309,13 +1333,13 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>1</v>
@@ -1328,15 +1352,17 @@
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="D31" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>1</v>
@@ -1351,13 +1377,13 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>1</v>
@@ -1370,15 +1396,17 @@
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="D33" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>1</v>
@@ -1393,13 +1421,13 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>1</v>
@@ -1414,13 +1442,13 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>1</v>
@@ -1434,16 +1462,16 @@
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>2</v>
@@ -1458,13 +1486,13 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>1</v>
@@ -1477,15 +1505,17 @@
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="D38" s="8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G38" s="8" t="n">
         <v>1</v>
@@ -1496,19 +1526,19 @@
         <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G39" s="11" t="n">
         <v>1</v>
@@ -1519,19 +1549,19 @@
         <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G40" s="11" t="n">
         <v>1</v>

--- a/academycity/data/training/datasets/excel/battalion_2/equipment_for_soldier.xlsx
+++ b/academycity/data/training/datasets/excel/battalion_2/equipment_for_soldier.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Data!$A$1:$H$41</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Data!$A$1:$J$41</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="173">
   <si>
     <t xml:space="preserve">item_number</t>
   </si>
@@ -37,6 +37,12 @@
     <t xml:space="preserve">item_name</t>
   </si>
   <si>
+    <t xml:space="preserve">critical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">critical_sniper</t>
+  </si>
+  <si>
     <t xml:space="preserve">pn</t>
   </si>
   <si>
@@ -376,7 +382,7 @@
     <t xml:space="preserve">כיסוי קסדה OSO Wasp L-XL R.G</t>
   </si>
   <si>
-    <t xml:space="preserve">nanoo</t>
+    <t xml:space="preserve">nanook_sf_rg_s</t>
   </si>
   <si>
     <t xml:space="preserve">9029-0093</t>
@@ -427,7 +433,7 @@
     <t xml:space="preserve">פנס כיס אישי</t>
   </si>
   <si>
-    <t xml:space="preserve">nanook_sf_rg</t>
+    <t xml:space="preserve">nanook_sf_rg_c</t>
   </si>
   <si>
     <t xml:space="preserve">9029-0094</t>
@@ -602,24 +608,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -669,7 +663,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -682,7 +676,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -698,36 +692,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -750,8 +720,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -770,7 +744,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -835,23 +809,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="61.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="61.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,6 +856,12 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -888,21 +871,27 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -914,21 +903,27 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -940,21 +935,27 @@
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -966,21 +967,27 @@
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -992,21 +999,27 @@
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="E6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1018,21 +1031,27 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="E7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1044,21 +1063,27 @@
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="E8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1070,21 +1095,27 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,21 +1127,27 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="E10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,21 +1159,27 @@
         <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="E11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,21 +1191,27 @@
         <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="E12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1174,21 +1223,27 @@
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="E13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1200,21 +1255,27 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="E14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1226,21 +1287,27 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="E15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1252,21 +1319,27 @@
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="E16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1278,21 +1351,27 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="E17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1304,21 +1383,27 @@
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="E18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1330,21 +1415,27 @@
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="E19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1356,21 +1447,27 @@
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="E20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1382,21 +1479,27 @@
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="E21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1408,21 +1511,27 @@
         <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="E22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1434,21 +1543,27 @@
         <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="E23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1460,21 +1575,27 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="E24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1486,21 +1607,27 @@
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="E25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1512,21 +1639,27 @@
         <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="E26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1538,21 +1671,27 @@
         <v>31</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="E27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1564,21 +1703,27 @@
         <v>32</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="E28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1590,25 +1735,31 @@
         <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="E29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="13" t="s">
+      <c r="H29" s="5" t="s">
         <v>121</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1619,21 +1770,27 @@
         <v>33</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="E30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1645,21 +1802,27 @@
         <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="E31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1671,21 +1834,27 @@
         <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="E32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1697,21 +1866,27 @@
         <v>39</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="E33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H33" s="2" t="n">
+      <c r="H33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J33" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1723,21 +1898,27 @@
         <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="E34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H34" s="2" t="n">
+      <c r="H34" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1749,21 +1930,27 @@
         <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="E35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H35" s="2" t="n">
+      <c r="H35" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J35" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1775,21 +1962,27 @@
         <v>24</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F36" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="E36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J36" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1801,130 +1994,160 @@
         <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="E37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J37" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15" t="n">
+      <c r="A38" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="B38" s="15" t="n">
+      <c r="B38" s="9" t="n">
         <v>22</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F38" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="E38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="H38" s="16" t="n">
+      <c r="H38" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J38" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="n">
+      <c r="A39" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="B39" s="15" t="n">
+      <c r="B39" s="9" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E39" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J39" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="n">
+        <v>47</v>
+      </c>
+      <c r="B40" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F39" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="H39" s="19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="n">
-        <v>47</v>
-      </c>
-      <c r="B40" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="F40" s="17" t="s">
+      <c r="D40" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="E40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H40" s="19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="n">
+      <c r="H40" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J40" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="n">
         <v>48</v>
       </c>
-      <c r="B41" s="15" t="n">
+      <c r="B41" s="9" t="n">
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="F41" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="E41" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H41" s="19" t="n">
+      <c r="H41" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J41" s="13" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H41"/>
+  <autoFilter ref="A1:J41"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/academycity/data/training/datasets/excel/battalion_2/equipment_for_soldier.xlsx
+++ b/academycity/data/training/datasets/excel/battalion_2/equipment_for_soldier.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Data!$A$1:$J$41</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Data!$A$1:$I$41</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="172">
   <si>
     <t xml:space="preserve">item_number</t>
   </si>
@@ -40,9 +40,6 @@
     <t xml:space="preserve">critical</t>
   </si>
   <si>
-    <t xml:space="preserve">critical_sniper</t>
-  </si>
-  <si>
     <t xml:space="preserve">pn</t>
   </si>
   <si>
@@ -94,7 +91,7 @@
     <t xml:space="preserve">ברכיות</t>
   </si>
   <si>
-    <t xml:space="preserve">Ballistic_Spectacles</t>
+    <t xml:space="preserve">ballistic_spectacles</t>
   </si>
   <si>
     <t xml:space="preserve">9050-0273</t>
@@ -397,7 +394,7 @@
     <t xml:space="preserve">מופיע פעמיים</t>
   </si>
   <si>
-    <t xml:space="preserve">Pistol_Double_Mag_Pouch</t>
+    <t xml:space="preserve">pistol_double_mag_pouch</t>
   </si>
   <si>
     <t xml:space="preserve">9034-0053</t>
@@ -421,7 +418,7 @@
     <t xml:space="preserve">פלטה קרמית 3 + </t>
   </si>
   <si>
-    <t xml:space="preserve">Personal_Flashlight</t>
+    <t xml:space="preserve">personal_flashlight</t>
   </si>
   <si>
     <t xml:space="preserve">9050-0299</t>
@@ -445,7 +442,7 @@
     <t xml:space="preserve">קרמון ננוק מיוחדות RG</t>
   </si>
   <si>
-    <t xml:space="preserve">Weapon_Flashlight_Mount</t>
+    <t xml:space="preserve">weapon_flashlight_mount</t>
   </si>
   <si>
     <t xml:space="preserve">9050-0269</t>
@@ -457,7 +454,7 @@
     <t xml:space="preserve">פנס עם חובק נשק</t>
   </si>
   <si>
-    <t xml:space="preserve">Right_Pistol_Pouch</t>
+    <t xml:space="preserve">right_pistol_pouch</t>
   </si>
   <si>
     <t xml:space="preserve">9034-0038</t>
@@ -809,10 +806,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -821,14 +818,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="61.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="61.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="11" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,9 +856,6 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -871,27 +865,24 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2" t="n">
+      <c r="I2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,27 +894,24 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="n">
+      <c r="I3" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -935,27 +923,24 @@
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="2" t="n">
+      <c r="I4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -967,27 +952,24 @@
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="2" t="n">
+      <c r="I5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -999,27 +981,24 @@
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2" t="n">
+      <c r="I6" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1031,27 +1010,24 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="4" t="n">
+      <c r="I7" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1063,27 +1039,24 @@
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="2" t="n">
+      <c r="I8" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1095,27 +1068,24 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="2" t="n">
+      <c r="I9" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1127,27 +1097,24 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="2" t="n">
+      <c r="I10" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1159,27 +1126,24 @@
         <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="2" t="n">
+      <c r="I11" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,27 +1155,24 @@
         <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="2" t="n">
+      <c r="I12" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1223,27 +1184,24 @@
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="2" t="n">
+      <c r="I13" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1255,27 +1213,24 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="2" t="n">
+      <c r="I14" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1287,27 +1242,24 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="2" t="n">
+      <c r="I15" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1319,27 +1271,24 @@
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="2" t="n">
+      <c r="I16" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1351,27 +1300,24 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="2" t="n">
+      <c r="I17" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1383,27 +1329,24 @@
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="2" t="n">
+      <c r="I18" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1415,27 +1358,24 @@
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="2" t="n">
+      <c r="I19" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1447,27 +1387,24 @@
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" s="2" t="n">
+      <c r="I20" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,27 +1416,24 @@
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" s="2" t="n">
+      <c r="I21" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1511,27 +1445,24 @@
         <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="F22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J22" s="2" t="n">
+      <c r="I22" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1543,27 +1474,24 @@
         <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23" s="2" t="n">
+      <c r="I23" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1575,27 +1503,24 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="F24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J24" s="2" t="n">
+      <c r="I24" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1607,27 +1532,24 @@
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J25" s="2" t="n">
+      <c r="I25" s="2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1639,27 +1561,24 @@
         <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J26" s="2" t="n">
+      <c r="I26" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1671,27 +1590,24 @@
         <v>31</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J27" s="2" t="n">
+      <c r="I27" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1703,27 +1619,24 @@
         <v>32</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="J28" s="2" t="n">
+      <c r="I28" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1735,31 +1648,28 @@
         <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1770,27 +1680,24 @@
         <v>33</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J30" s="2" t="n">
+      <c r="I30" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1802,27 +1709,24 @@
         <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="J31" s="2" t="n">
+      <c r="I31" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1834,27 +1738,24 @@
         <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="F32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="J32" s="2" t="n">
+      <c r="I32" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,27 +1767,24 @@
         <v>39</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J33" s="2" t="n">
+      <c r="I33" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1898,27 +1796,24 @@
         <v>35</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F34" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="F34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="J34" s="2" t="n">
+      <c r="I34" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1930,27 +1825,24 @@
         <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J35" s="2" t="n">
+      <c r="I35" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1962,27 +1854,24 @@
         <v>24</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="J36" s="2" t="n">
+      <c r="I36" s="2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1994,27 +1883,24 @@
         <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E37" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F37" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="F37" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="J37" s="2" t="n">
+      <c r="I37" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,27 +1912,24 @@
         <v>22</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E38" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F38" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="10" t="s">
+      <c r="F38" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="I38" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="J38" s="10" t="n">
+      <c r="I38" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,27 +1941,24 @@
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="I39" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="J39" s="13" t="n">
+      <c r="I39" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2090,31 +1970,28 @@
         <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D40" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="I40" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="J40" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I40" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
         <v>48</v>
       </c>
@@ -2122,32 +1999,29 @@
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D41" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E41" s="15" t="n">
+      <c r="G41" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I41" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F41" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="J41" s="13" t="n">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J41"/>
+  <autoFilter ref="A1:I41"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/academycity/data/training/datasets/excel/battalion_2/equipment_for_soldier.xlsx
+++ b/academycity/data/training/datasets/excel/battalion_2/equipment_for_soldier.xlsx
@@ -9,9 +9,10 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="draft" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Data!$A$1:$I$41</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Data!$A$1:$I$50</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,8 +23,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="H47" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Lior ben harush:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">קבלנו אישור אפי ב27.4</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="216">
   <si>
     <t xml:space="preserve">item_number</t>
   </si>
@@ -91,7 +128,7 @@
     <t xml:space="preserve">ברכיות</t>
   </si>
   <si>
-    <t xml:space="preserve">ballistic_spectacles</t>
+    <t xml:space="preserve">Ballistic_Spectacles</t>
   </si>
   <si>
     <t xml:space="preserve">9050-0273</t>
@@ -391,10 +428,7 @@
     <t xml:space="preserve">קרמון ננוק מיוחדות לחייל - סט</t>
   </si>
   <si>
-    <t xml:space="preserve">מופיע פעמיים</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pistol_double_mag_pouch</t>
+    <t xml:space="preserve">Pistol_Double_Mag_Pouch</t>
   </si>
   <si>
     <t xml:space="preserve">9034-0053</t>
@@ -418,7 +452,7 @@
     <t xml:space="preserve">פלטה קרמית 3 + </t>
   </si>
   <si>
-    <t xml:space="preserve">personal_flashlight</t>
+    <t xml:space="preserve">Personal_Flashlight</t>
   </si>
   <si>
     <t xml:space="preserve">9050-0299</t>
@@ -442,7 +476,7 @@
     <t xml:space="preserve">קרמון ננוק מיוחדות RG</t>
   </si>
   <si>
-    <t xml:space="preserve">weapon_flashlight_mount</t>
+    <t xml:space="preserve">Weapon_Flashlight_Mount</t>
   </si>
   <si>
     <t xml:space="preserve">9050-0269</t>
@@ -454,7 +488,7 @@
     <t xml:space="preserve">פנס עם חובק נשק</t>
   </si>
   <si>
-    <t xml:space="preserve">right_pistol_pouch</t>
+    <t xml:space="preserve">Right_Pistol_Pouch</t>
   </si>
   <si>
     <t xml:space="preserve">9034-0038</t>
@@ -529,6 +563,15 @@
     <t xml:space="preserve">RAMON אקדח</t>
   </si>
   <si>
+    <t xml:space="preserve">MZ15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000-0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMTAN MZ15 נשק קלעים </t>
+  </si>
+  <si>
     <t xml:space="preserve">mz10</t>
   </si>
   <si>
@@ -538,7 +581,133 @@
     <t xml:space="preserve">MZ10</t>
   </si>
   <si>
-    <t xml:space="preserve">Z10</t>
+    <t xml:space="preserve">נשק צלפים EMTAN MZ10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">medic_bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000-0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R.G-First Aid Bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תיק עזרה ראשונה RG - חובש</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanook_sf_rg_sniper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000-0006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NANOOK ™-SF R.G Sniper set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">קרמון ננוק מיוחדות לצלף - סט</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nanook_sf_rg_MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9029-0095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NANOOK ™-SF R.G Machine Gunner set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">קרמון ננוק מיוחדות למקלען- סט</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000-0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tactical Portable Ladder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סולם טקטי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hasty_camo_kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000-0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasty Camo kit (Desert/Woodland)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ערכת רשת מהירה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breaching_kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000-0009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entry Breaching Tools Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ערכת פריצה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raid_suit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000-0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foliage Raid Camo Suit - Woodland New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חליפת פשיטה שלכת - יערי חדש</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poncho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000-0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajuga Poncho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">פונצ'ו RAJUGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רק מפקדים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רק למפקדים שיש להם מוטורולה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רק קלעים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">רק צלפים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical Equipment Package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ציוד רפואי לפי רשימה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תיק רופא </t>
+  </si>
+  <si>
+    <t xml:space="preserve">תיק חובש</t>
+  </si>
+  <si>
+    <t xml:space="preserve">וסט צלף</t>
+  </si>
+  <si>
+    <t xml:space="preserve">וסט נגביסט</t>
   </si>
 </sst>
 </file>
@@ -548,7 +717,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -604,19 +773,28 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -693,10 +871,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -721,8 +895,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -734,66 +912,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -806,29 +924,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="61.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="28.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="11" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,7 +1117,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1668,9 +1786,6 @@
       <c r="I29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
@@ -1683,19 +1798,19 @@
         <v>9</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>1</v>
@@ -1712,19 +1827,19 @@
         <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>1</v>
@@ -1741,19 +1856,19 @@
         <v>9</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>1</v>
@@ -1770,19 +1885,19 @@
         <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>1</v>
@@ -1799,19 +1914,19 @@
         <v>9</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E34" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>1</v>
@@ -1828,19 +1943,19 @@
         <v>9</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>1</v>
@@ -1857,19 +1972,19 @@
         <v>9</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="H36" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>2</v>
@@ -1886,142 +2001,403 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E37" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="H37" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="I37" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="n">
+        <v>39</v>
+      </c>
+      <c r="B38" s="8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="B38" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="E38" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="H38" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="I38" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="n">
+        <v>46</v>
+      </c>
+      <c r="B39" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I38" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="n">
+      <c r="D39" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I39" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="n">
+        <v>47</v>
+      </c>
+      <c r="B40" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I40" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="n">
+        <v>49</v>
+      </c>
+      <c r="B41" s="8" t="n">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I41" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="n">
+        <v>48</v>
+      </c>
+      <c r="B42" s="8" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="B43" s="14" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="I43" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14" t="n">
+        <v>51</v>
+      </c>
+      <c r="B44" s="14" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14" t="n">
+        <v>52</v>
+      </c>
+      <c r="B45" s="14" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E45" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I45" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14" t="n">
+        <v>53</v>
+      </c>
+      <c r="B46" s="14" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14" t="n">
+        <v>54</v>
+      </c>
+      <c r="B47" s="14" t="n">
         <v>46</v>
       </c>
-      <c r="B39" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="I39" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I47" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14" t="n">
+        <v>55</v>
+      </c>
+      <c r="B48" s="14" t="n">
         <v>47</v>
       </c>
-      <c r="B40" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="I40" s="13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="n">
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I48" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="n">
+        <v>56</v>
+      </c>
+      <c r="B49" s="14" t="n">
         <v>48</v>
       </c>
-      <c r="B41" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="I41" s="13" t="n">
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E49" s="3" t="n">
         <v>0</v>
       </c>
+      <c r="F49" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="I49" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="14" t="n">
+        <v>57</v>
+      </c>
+      <c r="B50" s="14" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I50" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I41"/>
+  <autoFilter ref="A1:I50"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2029,6 +2405,427 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/academycity/data/training/datasets/excel/battalion_2/equipment_for_soldier.xlsx
+++ b/academycity/data/training/datasets/excel/battalion_2/equipment_for_soldier.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="217">
   <si>
     <t xml:space="preserve">item_number</t>
   </si>
@@ -563,10 +563,13 @@
     <t xml:space="preserve">RAMON אקדח</t>
   </si>
   <si>
+    <t xml:space="preserve">mz15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6000-0004</t>
+  </si>
+  <si>
     <t xml:space="preserve">MZ15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6000-0004</t>
   </si>
   <si>
     <t xml:space="preserve">EMTAN MZ15 נשק קלעים </t>
@@ -926,8 +929,8 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2126,10 +2129,10 @@
         <v>168</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I41" s="12" t="n">
         <v>1</v>
@@ -2146,19 +2149,19 @@
         <v>158</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E42" s="14" t="n">
         <v>3</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I42" s="12" t="n">
         <v>1</v>
@@ -2175,19 +2178,19 @@
         <v>9</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E43" s="14" t="n">
         <v>7</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I43" s="12" t="n">
         <v>1</v>
@@ -2204,19 +2207,19 @@
         <v>9</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E44" s="14" t="n">
         <v>3</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I44" s="12" t="n">
         <v>1</v>
@@ -2233,19 +2236,19 @@
         <v>9</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E45" s="14" t="n">
         <v>5</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I45" s="12" t="n">
         <v>1</v>
@@ -2262,19 +2265,19 @@
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E46" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I46" s="12" t="n">
         <v>1</v>
@@ -2291,19 +2294,19 @@
         <v>9</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E47" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I47" s="12" t="n">
         <v>1</v>
@@ -2320,19 +2323,19 @@
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E48" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I48" s="12" t="n">
         <v>1</v>
@@ -2349,19 +2352,19 @@
         <v>9</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E49" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I49" s="12" t="n">
         <v>1</v>
@@ -2378,19 +2381,19 @@
         <v>9</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E50" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I50" s="12" t="n">
         <v>1</v>
@@ -2501,7 +2504,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2600,7 +2603,7 @@
         <v>93</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2683,7 +2686,7 @@
         <v>133</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,7 +2697,7 @@
         <v>137</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2755,68 +2758,68 @@
     </row>
     <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/academycity/data/training/datasets/excel/battalion_2/equipment_for_soldier.xlsx
+++ b/academycity/data/training/datasets/excel/battalion_2/equipment_for_soldier.xlsx
@@ -128,7 +128,7 @@
     <t xml:space="preserve">ברכיות</t>
   </si>
   <si>
-    <t xml:space="preserve">Ballistic_Spectacles</t>
+    <t xml:space="preserve">ballistic_spectacles</t>
   </si>
   <si>
     <t xml:space="preserve">9050-0273</t>
@@ -792,12 +792,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -841,7 +847,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -868,6 +874,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -915,6 +925,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -929,8 +999,8 @@
   </sheetPr>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E7" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1078,8 +1148,8 @@
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="n">
-        <v>1</v>
+      <c r="E5" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>23</v>
@@ -1145,7 +1215,7 @@
       <c r="G7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="4" t="n">
@@ -1252,8 +1322,8 @@
       <c r="D11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="3" t="n">
-        <v>1</v>
+      <c r="E11" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>47</v>
@@ -1281,8 +1351,8 @@
       <c r="D12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="3" t="n">
-        <v>1</v>
+      <c r="E12" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>51</v>
@@ -1600,8 +1670,8 @@
       <c r="D23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="3" t="n">
-        <v>1</v>
+      <c r="E23" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>95</v>
@@ -1716,8 +1786,8 @@
       <c r="D27" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="3" t="n">
-        <v>1</v>
+      <c r="E27" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>111</v>
@@ -1745,8 +1815,8 @@
       <c r="D28" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="3" t="n">
-        <v>1</v>
+      <c r="E28" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>115</v>
@@ -1774,8 +1844,8 @@
       <c r="D29" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="3" t="n">
-        <v>1</v>
+      <c r="E29" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>119</v>
@@ -1803,8 +1873,8 @@
       <c r="D30" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="3" t="n">
-        <v>1</v>
+      <c r="E30" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>123</v>
@@ -2023,10 +2093,10 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="n">
+      <c r="A38" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="B38" s="8" t="n">
+      <c r="B38" s="9" t="n">
         <v>22</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2038,24 +2108,24 @@
       <c r="E38" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="I38" s="9" t="n">
+      <c r="I38" s="10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="n">
+      <c r="A39" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="B39" s="8" t="n">
+      <c r="B39" s="9" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2067,140 +2137,140 @@
       <c r="E39" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="I39" s="12" t="n">
+      <c r="I39" s="13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="n">
+      <c r="A40" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="B40" s="8" t="n">
+      <c r="B40" s="9" t="n">
         <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="14" t="s">
         <v>163</v>
       </c>
       <c r="E40" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="I40" s="12" t="n">
+      <c r="I40" s="13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="n">
+      <c r="A41" s="9" t="n">
         <v>49</v>
       </c>
-      <c r="B41" s="8" t="n">
+      <c r="B41" s="9" t="n">
         <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="14" t="s">
         <v>167</v>
       </c>
       <c r="E41" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="G41" s="10" t="s">
+      <c r="G41" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="I41" s="12" t="n">
+      <c r="I41" s="13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="n">
+      <c r="A42" s="9" t="n">
         <v>48</v>
       </c>
-      <c r="B42" s="8" t="n">
+      <c r="B42" s="9" t="n">
         <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="E42" s="14" t="n">
+      <c r="E42" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="I42" s="12" t="n">
+      <c r="I42" s="13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="n">
+      <c r="A43" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="B43" s="14" t="n">
+      <c r="B43" s="15" t="n">
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E43" s="14" t="n">
+      <c r="E43" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="10" t="s">
         <v>176</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="I43" s="12" t="n">
+      <c r="I43" s="13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="n">
+      <c r="A44" s="15" t="n">
         <v>51</v>
       </c>
-      <c r="B44" s="14" t="n">
+      <c r="B44" s="15" t="n">
         <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2209,27 +2279,27 @@
       <c r="D44" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E44" s="14" t="n">
+      <c r="E44" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="10" t="s">
         <v>180</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="I44" s="12" t="n">
+      <c r="I44" s="13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="n">
+      <c r="A45" s="15" t="n">
         <v>52</v>
       </c>
-      <c r="B45" s="14" t="n">
+      <c r="B45" s="15" t="n">
         <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -2238,7 +2308,7 @@
       <c r="D45" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E45" s="14" t="n">
+      <c r="E45" s="15" t="n">
         <v>5</v>
       </c>
       <c r="F45" s="4" t="s">
@@ -2247,18 +2317,18 @@
       <c r="G45" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="I45" s="12" t="n">
+      <c r="I45" s="13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="n">
+      <c r="A46" s="15" t="n">
         <v>53</v>
       </c>
-      <c r="B46" s="14" t="n">
+      <c r="B46" s="15" t="n">
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -2270,24 +2340,24 @@
       <c r="E46" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="10" t="s">
         <v>188</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="I46" s="12" t="n">
+      <c r="I46" s="13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="n">
+      <c r="A47" s="15" t="n">
         <v>54</v>
       </c>
-      <c r="B47" s="14" t="n">
+      <c r="B47" s="15" t="n">
         <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2299,24 +2369,24 @@
       <c r="E47" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="10" t="s">
         <v>192</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="I47" s="12" t="n">
+      <c r="I47" s="13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="n">
+      <c r="A48" s="15" t="n">
         <v>55</v>
       </c>
-      <c r="B48" s="14" t="n">
+      <c r="B48" s="15" t="n">
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2328,24 +2398,24 @@
       <c r="E48" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="10" t="s">
         <v>196</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="I48" s="12" t="n">
+      <c r="I48" s="13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="n">
+      <c r="A49" s="15" t="n">
         <v>56</v>
       </c>
-      <c r="B49" s="14" t="n">
+      <c r="B49" s="15" t="n">
         <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -2357,24 +2427,24 @@
       <c r="E49" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="10" t="s">
         <v>200</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="I49" s="12" t="n">
+      <c r="I49" s="13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="n">
+      <c r="A50" s="15" t="n">
         <v>57</v>
       </c>
-      <c r="B50" s="14" t="n">
+      <c r="B50" s="15" t="n">
         <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2386,16 +2456,16 @@
       <c r="E50" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="10" t="s">
         <v>204</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="I50" s="12" t="n">
+      <c r="I50" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2476,7 +2546,7 @@
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2733,34 +2803,34 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="12" t="s">
         <v>170</v>
       </c>
       <c r="C40" s="0" t="s">
@@ -2768,10 +2838,10 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="12" t="s">
         <v>174</v>
       </c>
       <c r="C41" s="0" t="s">
@@ -2782,7 +2852,7 @@
       <c r="A42" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="16" t="s">
         <v>212</v>
       </c>
       <c r="C42" s="0" t="s">
@@ -2793,7 +2863,7 @@
       <c r="A43" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="16" t="s">
         <v>178</v>
       </c>
       <c r="C43" s="0" t="s">
@@ -2804,7 +2874,7 @@
       <c r="A44" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="16" t="s">
         <v>182</v>
       </c>
       <c r="C44" s="0" t="s">
@@ -2815,7 +2885,7 @@
       <c r="A45" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="16" t="s">
         <v>186</v>
       </c>
       <c r="C45" s="0" t="s">

--- a/academycity/data/training/datasets/excel/battalion_2/equipment_for_soldier.xlsx
+++ b/academycity/data/training/datasets/excel/battalion_2/equipment_for_soldier.xlsx
@@ -567,7 +567,7 @@
     <t xml:space="preserve">9034-0038</t>
   </si>
   <si>
-    <t xml:space="preserve">70l_packpack</t>
+    <t xml:space="preserve">70l_backpack</t>
   </si>
   <si>
     <t xml:space="preserve">70L Backpack with Rain cover</t>
@@ -1395,8 +1395,8 @@
   </sheetPr>
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C79" activeCellId="0" sqref="C79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3837,7 +3837,7 @@
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -4040,7 +4040,7 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/academycity/data/training/datasets/excel/battalion_2/equipment_for_soldier.xlsx
+++ b/academycity/data/training/datasets/excel/battalion_2/equipment_for_soldier.xlsx
@@ -13,7 +13,7 @@
     <sheet name="unit_critical" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Data!$A$1:$I$51</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Data!$A$1:$I$73</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="334">
   <si>
     <t xml:space="preserve">item_number</t>
   </si>
@@ -681,7 +681,7 @@
     <t xml:space="preserve">M203 Optic + Range Finder</t>
   </si>
   <si>
-    <t xml:space="preserve">כוונת למטול 203</t>
+    <t xml:space="preserve">מד טווח לייזר</t>
   </si>
   <si>
     <t xml:space="preserve">7000-0008</t>
@@ -699,30 +699,6 @@
     <t xml:space="preserve">9034-0023</t>
   </si>
   <si>
-    <t xml:space="preserve">nanook_sf_rg_sniper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NANOOK ™-SF R.G Sniper set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">קרמון ננוק מיוחדות לצלף - סט</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7000-0009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nanook_sf_rg_mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NANOOK ™-SF R.G Machine Gunner set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">קרמון ננוק מיוחדות למקלען- סט</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9029-0095</t>
-  </si>
-  <si>
     <t xml:space="preserve">medical_equipment _package</t>
   </si>
   <si>
@@ -1008,6 +984,24 @@
     <t xml:space="preserve">מפקד</t>
   </si>
   <si>
+    <t xml:space="preserve">Tireur de Précision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slingshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">קלע - MZ15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitrailleur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">machine gunner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מקלען - נגב</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tireur d’Elite</t>
   </si>
   <si>
@@ -1017,27 +1011,6 @@
     <t xml:space="preserve">צלף - MZ10</t>
   </si>
   <si>
-    <t xml:space="preserve">Tireur de Précision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slingshot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">קלע - MZ15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitrailleur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">machine gunner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מקלען - נגב</t>
-  </si>
-  <si>
-    <t xml:space="preserve">קשר</t>
-  </si>
-  <si>
     <t xml:space="preserve">Médique</t>
   </si>
   <si>
@@ -1047,21 +1020,6 @@
     <t xml:space="preserve">חובש</t>
   </si>
   <si>
-    <t xml:space="preserve">Conducteur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">נהג</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lanceur Castor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">נ"ט</t>
-  </si>
-  <si>
     <t xml:space="preserve">Operateur de drone</t>
   </si>
   <si>
@@ -1069,6 +1027,9 @@
   </si>
   <si>
     <t xml:space="preserve">מפעיל רחפן</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חבלה</t>
   </si>
   <si>
     <t xml:space="preserve">OBSERVATEUR</t>
@@ -1184,12 +1145,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1239,7 +1206,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1300,11 +1267,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1328,7 +1303,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -1385,7 +1360,53 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>920160</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7809840" cy="7641360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1393,27 +1414,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G60" activeCellId="0" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="31.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="50.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="39.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="996" min="11" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="997" min="997" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="998" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="31.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="50.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="39.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="993" min="11" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="994" min="994" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="995" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>20</v>
@@ -1561,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>24</v>
@@ -1593,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>28</v>
@@ -2841,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>185</v>
@@ -2969,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>201</v>
@@ -3006,11 +3028,11 @@
       <c r="G50" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="12" t="s">
         <v>206</v>
       </c>
       <c r="I50" s="8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>207</v>
@@ -3050,10 +3072,10 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B52" s="5" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>31</v>
@@ -3064,13 +3086,13 @@
       <c r="E52" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F52" s="10" t="n">
-        <v>0</v>
+      <c r="F52" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="H52" s="14" t="s">
+      <c r="H52" s="5" t="s">
         <v>214</v>
       </c>
       <c r="I52" s="8" t="n">
@@ -3082,10 +3104,10 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B53" s="5" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>31</v>
@@ -3096,8 +3118,8 @@
       <c r="E53" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="F53" s="10" t="n">
-        <v>0</v>
+      <c r="F53" s="5" t="n">
+        <v>10</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>217</v>
@@ -3108,80 +3130,80 @@
       <c r="I53" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="J53" s="9" t="s">
+      <c r="J53" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B54" s="5" t="n">
-        <v>53</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="E54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="G54" s="11" t="s">
+      <c r="E54" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="I54" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" s="5" t="s">
+      <c r="I54" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B55" s="5" t="n">
-        <v>54</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="E55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="G55" s="11" t="s">
+      <c r="E55" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="I55" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" s="5" t="s">
+      <c r="I55" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" s="15" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B56" s="5" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>31</v>
@@ -3190,7 +3212,7 @@
         <v>228</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="5" t="n">
         <v>0</v>
@@ -3202,7 +3224,7 @@
         <v>230</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>231</v>
@@ -3210,10 +3232,10 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B57" s="5" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>31</v>
@@ -3222,106 +3244,106 @@
         <v>232</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G57" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H57" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="I57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="I57" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B58" s="5" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D58" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E58" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="11" t="s">
+      <c r="I58" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J58" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I58" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B59" s="5" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D59" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H59" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H59" s="5" t="s">
+      <c r="I59" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J59" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="I59" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B60" s="5" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E60" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>243</v>
@@ -3330,7 +3352,7 @@
         <v>244</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>245</v>
@@ -3338,10 +3360,10 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B61" s="5" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>31</v>
@@ -3362,7 +3384,7 @@
         <v>248</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>249</v>
@@ -3370,10 +3392,10 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B62" s="5" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>31</v>
@@ -3385,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>251</v>
@@ -3402,10 +3424,10 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B63" s="5" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>31</v>
@@ -3434,10 +3456,10 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B64" s="5" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>31</v>
@@ -3466,10 +3488,10 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B65" s="5" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>31</v>
@@ -3498,10 +3520,10 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B66" s="5" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>31</v>
@@ -3530,10 +3552,10 @@
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B67" s="5" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>31</v>
@@ -3562,10 +3584,10 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B68" s="5" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>31</v>
@@ -3594,10 +3616,10 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B69" s="5" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>31</v>
@@ -3626,10 +3648,10 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B70" s="5" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>31</v>
@@ -3658,10 +3680,10 @@
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B71" s="5" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>31</v>
@@ -3690,10 +3712,10 @@
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B72" s="5" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>31</v>
@@ -3722,10 +3744,10 @@
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B73" s="5" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>31</v>
@@ -3752,72 +3774,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="10" t="n">
-        <v>132</v>
-      </c>
-      <c r="B74" s="5" t="n">
-        <v>73</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E74" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="I74" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="10" t="n">
-        <v>133</v>
-      </c>
-      <c r="B75" s="5" t="n">
-        <v>74</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E75" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="I75" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I51"/>
+  <autoFilter ref="A1:I73"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3835,191 +3793,162 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="16" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C4" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D4" s="19" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C5" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D5" s="19" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="D6" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="C4" s="17" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="C7" s="0" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="D7" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="C5" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="C8" s="0" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="D8" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="C6" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="17" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="C10" s="0" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="D10" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="C8" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D11" s="19" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4044,9 +3973,9 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,10 +3983,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4065,10 +3994,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4076,10 +4005,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
